--- a/momo/momo 訂單-常溫.xlsx
+++ b/momo/momo 訂單-常溫.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>轉入頂新</t>
   </si>
@@ -93,9 +93,6 @@
     <t>30170205898376</t>
   </si>
   <si>
-    <t>3017020589</t>
-  </si>
-  <si>
     <t>蕭翠玲</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
   </si>
   <si>
     <t>30170205903657</t>
-  </si>
-  <si>
-    <t>3017020590</t>
   </si>
   <si>
     <t>葉嘉萍</t>
@@ -520,9 +514,9 @@
     <col customWidth="1" max="19" min="19" width="27"/>
     <col customWidth="1" max="20" min="20" width="8"/>
     <col customWidth="1" max="21" min="21" width="8"/>
-    <col customWidth="1" max="22" min="22" width="10"/>
-    <col customWidth="1" max="23" min="23" width="10"/>
-    <col customWidth="1" max="24" min="24" width="6"/>
+    <col customWidth="1" max="25" min="25" width="10"/>
+    <col customWidth="1" max="26" min="26" width="10"/>
+    <col customWidth="1" max="27" min="27" width="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29"/>
@@ -587,13 +581,16 @@
       <c r="U3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" t="s"/>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -611,52 +608,52 @@
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J5" s="1" t="s"/>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1" t="n"/>
       <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" s="1" t="n"/>
       <c r="Q5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="n"/>
+      <c r="W5" s="1" t="n"/>
+      <c r="X5" s="1" t="n"/>
+      <c r="Y5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="1" t="n"/>
-      <c r="Y5" s="1" t="n"/>
-      <c r="Z5" s="1" t="n"/>
       <c r="AA5" s="1" t="n"/>
       <c r="AB5" s="1" t="n"/>
       <c r="AC5" s="1" t="n"/>
@@ -672,44 +669,44 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
       </c>
       <c r="J6" t="s"/>
       <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
         <v>28</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
       </c>
       <c r="Q6" t="s">
         <v>23</v>
       </c>
       <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>31</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>32</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Y6" t="s">
         <v>33</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Z6" t="s">
         <v>34</v>
-      </c>
-      <c r="W6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -718,59 +715,59 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="J7" s="1" t="s"/>
       <c r="K7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" s="1" t="n"/>
       <c r="M7" s="1" t="n"/>
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" s="1" t="n"/>
       <c r="Q7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="U7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" s="1" t="n"/>
-      <c r="Y7" s="1" t="n"/>
-      <c r="Z7" s="1" t="n"/>
       <c r="AA7" s="1" t="n"/>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="n"/>
@@ -787,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,14 +811,14 @@
     <col customWidth="1" max="19" min="19" width="8"/>
     <col customWidth="1" max="20" min="20" width="8"/>
     <col customWidth="1" max="21" min="21" width="6"/>
-    <col customWidth="1" max="22" min="22" width="10"/>
-    <col customWidth="1" max="23" min="23" width="10"/>
-    <col customWidth="1" max="24" min="24" width="6"/>
+    <col customWidth="1" max="25" min="25" width="10"/>
+    <col customWidth="1" max="26" min="26" width="10"/>
+    <col customWidth="1" max="27" min="27" width="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24"/>
-    <row r="2" spans="1:24"/>
-    <row r="3" spans="1:24">
+    <row r="1" spans="1:27"/>
+    <row r="2" spans="1:27"/>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -881,13 +878,16 @@
       <c r="U3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" t="s"/>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -902,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,14 +929,14 @@
     <col customWidth="1" max="19" min="19" width="8"/>
     <col customWidth="1" max="20" min="20" width="8"/>
     <col customWidth="1" max="21" min="21" width="6"/>
-    <col customWidth="1" max="22" min="22" width="10"/>
-    <col customWidth="1" max="23" min="23" width="10"/>
-    <col customWidth="1" max="24" min="24" width="6"/>
+    <col customWidth="1" max="25" min="25" width="10"/>
+    <col customWidth="1" max="26" min="26" width="10"/>
+    <col customWidth="1" max="27" min="27" width="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24"/>
-    <row r="2" spans="1:24"/>
-    <row r="3" spans="1:24">
+    <row r="1" spans="1:27"/>
+    <row r="2" spans="1:27"/>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -996,13 +996,16 @@
       <c r="U3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" t="s"/>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/momo/momo 訂單-常溫.xlsx
+++ b/momo/momo 訂單-常溫.xlsx
@@ -117,7 +117,7 @@
     <t>1398</t>
   </si>
   <si>
-    <t>信用卡</t>
+    <t>13</t>
   </si>
   <si>
     <t>已付款</t>
